--- a/Exercicio6/teste de mesa/testes de mesa.xlsx
+++ b/Exercicio6/teste de mesa/testes de mesa.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ZAATx4\source\repos\Exercicios\Exercicio6\teste de mesa\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5F4C93-0B91-4D8E-A011-A978C98CEDAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63F274A5-56A8-453A-A100-9DF5A6EF9EE0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="480" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="20">
   <si>
     <t>O que faz</t>
   </si>
@@ -48,15 +48,9 @@
     <t>procedimento\n2.txt</t>
   </si>
   <si>
-    <t>procedimento\n3.txt</t>
-  </si>
-  <si>
     <t>código\n2.txt</t>
   </si>
   <si>
-    <t>código\n3.txt</t>
-  </si>
-  <si>
     <t>código\n4 a1.txt</t>
   </si>
   <si>
@@ -67,13 +61,37 @@
   </si>
   <si>
     <t>código\n4 a2.txt</t>
+  </si>
+  <si>
+    <t>procedimento\n5 a2.txt</t>
+  </si>
+  <si>
+    <t>código\n5 a2.txt</t>
+  </si>
+  <si>
+    <t>código\n5 a1.txt</t>
+  </si>
+  <si>
+    <t>procedimento\n5 a1.txt</t>
+  </si>
+  <si>
+    <t>procedimento\n3 a1.txt</t>
+  </si>
+  <si>
+    <t>código\n3 a1.txt</t>
+  </si>
+  <si>
+    <t>procedimento\n3 a2.txt</t>
+  </si>
+  <si>
+    <t>código\n3 a2.txt</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -89,13 +107,64 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF002060"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,9 +180,18 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hiperlink" xfId="1" builtinId="8"/>
@@ -397,99 +475,129 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="3" customWidth="1"/>
-    <col min="2" max="2" width="26.7109375" customWidth="1"/>
-    <col min="3" max="3" width="26.28515625" customWidth="1"/>
+    <col min="2" max="2" width="22.5703125" customWidth="1"/>
+    <col min="3" max="3" width="16.42578125" customWidth="1"/>
     <col min="4" max="4" width="2.7109375" customWidth="1"/>
     <col min="5" max="5" width="22.85546875" customWidth="1"/>
-    <col min="6" max="6" width="18.28515625" customWidth="1"/>
+    <col min="6" max="6" width="15.85546875" customWidth="1"/>
     <col min="9" max="9" width="2.85546875" customWidth="1"/>
     <col min="10" max="10" width="23.85546875" customWidth="1"/>
     <col min="11" max="11" width="23.7109375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="7" t="s">
         <v>1</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A2">
+      <c r="A2" s="1">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="1" t="s">
+      <c r="C2" s="8" t="s">
         <v>5</v>
       </c>
+      <c r="D2" s="2"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="9"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A3">
+      <c r="A3" s="1">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
+      <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C3" s="1" t="s">
-        <v>8</v>
-      </c>
+      <c r="C3" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D3" s="2"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A4">
+      <c r="A4" s="1">
         <v>3</v>
       </c>
-      <c r="B4" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>9</v>
+      <c r="B4" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="D4" s="2">
+        <v>3</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="10" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A5">
+      <c r="A5" s="1">
         <v>4</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="B5" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D5" s="2">
+        <v>4</v>
+      </c>
+      <c r="E5" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="10" t="s">
         <v>11</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D5">
-        <v>4</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A6">
+      <c r="A6" s="1">
         <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="D6" s="2">
+        <v>5</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>13</v>
       </c>
     </row>
   </sheetData>
@@ -504,6 +612,12 @@
     <hyperlink ref="B5" r:id="rId8" xr:uid="{9F0A5496-80FC-4849-8B15-0ED1ED7A304C}"/>
     <hyperlink ref="E5" r:id="rId9" xr:uid="{08586149-D6EE-4D42-9C66-99812A462499}"/>
     <hyperlink ref="F5" r:id="rId10" xr:uid="{674AC18A-5BDC-47C0-B81C-803208B62CC5}"/>
+    <hyperlink ref="B6" r:id="rId11" xr:uid="{E89DF91A-DE51-4F36-AF5E-BB1C057637DC}"/>
+    <hyperlink ref="C6" r:id="rId12" xr:uid="{B2C79D50-77C0-46F3-A8D9-4367EEDEB287}"/>
+    <hyperlink ref="E6" r:id="rId13" xr:uid="{CE2DF499-6A9F-4530-BEA1-14568F1E3F9D}"/>
+    <hyperlink ref="F6" r:id="rId14" xr:uid="{7A7AAF7F-B752-4DDA-B394-01B5F4DC890E}"/>
+    <hyperlink ref="E4" r:id="rId15" xr:uid="{01AEB6B9-ABB2-4B55-84F0-8FFC712A7CD0}"/>
+    <hyperlink ref="F4" r:id="rId16" xr:uid="{FC6236FC-DF64-47CD-8BFC-834BFE48B752}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
